--- a/data/trans_camb/IP19C07-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IP19C07-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,89; 11,89</t>
+          <t>-4,88; 13,02</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,08; 10,41</t>
+          <t>-5,71; 12,64</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-12,07; -1,48</t>
+          <t>-12,43; -1,49</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-15,5; 4,47</t>
+          <t>-15,57; 5,33</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-18,62; 3,78</t>
+          <t>-18,52; 3,11</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-17,89; 1,35</t>
+          <t>-18,84; 1,52</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-8,0; 5,58</t>
+          <t>-8,68; 5,89</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-9,89; 4,04</t>
+          <t>-10,2; 3,94</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-12,79; -1,05</t>
+          <t>-12,77; -1,22</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -806,32 +806,32 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-80,89; 69,99</t>
+          <t>-79,42; 98,55</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 107,61</t>
+          <t>-100,0; 134,46</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 49,53</t>
+          <t>-100,0; 76,33</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-63,84; 99,34</t>
+          <t>-70,1; 102,86</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-86,04; 74,47</t>
+          <t>-86,42; 81,57</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 11,36</t>
+          <t>-100,0; 20,7</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,21; 1,81</t>
+          <t>-6,97; 1,4</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,99; -2,72</t>
+          <t>-10,01; -2,67</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,74; -0,83</t>
+          <t>-8,57; -0,86</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,53; 1,21</t>
+          <t>-7,95; 0,85</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-7,82; 0,48</t>
+          <t>-7,8; 0,85</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-8,63; -0,2</t>
+          <t>-8,6; -0,2</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-5,83; -0,05</t>
+          <t>-5,64; 0,22</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-7,85; -1,93</t>
+          <t>-7,41; -1,67</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-7,32; -1,35</t>
+          <t>-7,12; -1,5</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-52,29; 21,13</t>
+          <t>-55,66; 21,18</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-79,8; -30,81</t>
+          <t>-81,14; -31,66</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-69,64; -7,99</t>
+          <t>-69,32; -5,82</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-58,99; 15,54</t>
+          <t>-62,03; 10,39</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-60,01; 8,13</t>
+          <t>-59,39; 12,29</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-66,1; -2,46</t>
+          <t>-66,55; 0,23</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-47,06; -0,34</t>
+          <t>-47,48; 2,92</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-63,34; -21,02</t>
+          <t>-62,72; -18,91</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-60,99; -12,43</t>
+          <t>-60,59; -16,56</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,69; 13,83</t>
+          <t>-5,49; 13,68</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,95; 5,6</t>
+          <t>-9,91; 5,89</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-12,55; 2,23</t>
+          <t>-13,18; 2,16</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-10,34; 9,83</t>
+          <t>-9,12; 10,84</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-14,4; 5,06</t>
+          <t>-13,73; 4,09</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-13,24; 4,8</t>
+          <t>-13,33; 4,01</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 8,91</t>
+          <t>-4,33; 8,6</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-10,33; 2,89</t>
+          <t>-10,31; 2,42</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-10,9; 1,08</t>
+          <t>-10,52; 0,95</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-29,97; 168,5</t>
+          <t>-34,08; 164,55</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-59,09; 70,34</t>
+          <t>-58,45; 74,51</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-69,44; 39,31</t>
+          <t>-72,86; 32,07</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-46,83; 89,54</t>
+          <t>-43,14; 105,5</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-66,35; 50,21</t>
+          <t>-63,59; 37,34</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-61,28; 44,4</t>
+          <t>-61,12; 39,78</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-25,82; 79,14</t>
+          <t>-25,63; 75,48</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-56,21; 25,89</t>
+          <t>-58,15; 21,0</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-59,54; 12,03</t>
+          <t>-57,76; 11,05</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 3,57</t>
+          <t>-4,11; 3,31</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-7,57; -1,25</t>
+          <t>-7,84; -0,99</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-7,16; -0,63</t>
+          <t>-7,66; -1,1</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,18; 1,03</t>
+          <t>-6,31; 1,63</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-7,98; -0,16</t>
+          <t>-8,06; -0,47</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-8,09; -0,54</t>
+          <t>-8,3; -0,62</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-4,06; 1,3</t>
+          <t>-3,91; 1,42</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-6,65; -1,71</t>
+          <t>-6,57; -1,63</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-6,78; -1,9</t>
+          <t>-6,6; -1,96</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-33,15; 44,08</t>
+          <t>-33,36; 40,59</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-64,69; -13,9</t>
+          <t>-64,87; -10,43</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-60,58; -8,68</t>
+          <t>-62,55; -10,55</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-43,89; 10,63</t>
+          <t>-42,78; 18,48</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-55,34; -0,71</t>
+          <t>-56,08; -0,76</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-58,1; -4,58</t>
+          <t>-57,53; -5,18</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-32,67; 13,76</t>
+          <t>-31,62; 14,38</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-53,38; -15,64</t>
+          <t>-52,65; -17,2</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-53,85; -18,72</t>
+          <t>-53,96; -20,01</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP19C07-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IP19C07-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -632,34 +632,34 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>-4,74</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>-9,21</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>-8,58</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>2,66</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>1,74</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>-4,57</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-4,74</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-9,21</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-8,69</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
           <t>-1,2</t>
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-6,63</t>
+          <t>-6,6</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,88; 13,02</t>
+          <t>-14,5; 6,12</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,71; 12,64</t>
+          <t>-17,16; 3,7</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-12,43; -1,49</t>
+          <t>-17,24; 1,68</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-15,57; 5,33</t>
+          <t>-5,1; 12,01</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-18,52; 3,11</t>
+          <t>-5,54; 11,85</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-18,84; 1,52</t>
+          <t>-12,27; -1,47</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-8,68; 5,89</t>
+          <t>-7,87; 5,18</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-10,2; 3,94</t>
+          <t>-9,54; 4,04</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-12,77; -1,22</t>
+          <t>-12,78; -0,63</t>
         </is>
       </c>
     </row>
@@ -738,34 +738,34 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>-36,48%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>-70,93%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>-66,09%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>58,1%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>38,04%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-36,48%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-70,93%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-66,91%</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
           <t>-13,4%</t>
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-73,94%</t>
+          <t>-73,56%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-78,01; 124,37</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 117,91</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 57,75</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>-80,62; 898,53</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
+      <c r="H7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-79,42; 98,55</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 134,46</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 76,33</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-70,1; 102,86</t>
+          <t>-64,46; 91,13</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-86,42; 81,57</t>
+          <t>-86,62; 84,87</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 20,7</t>
+          <t>-100,0; 29,89</t>
         </is>
       </c>
     </row>
@@ -848,32 +848,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>-3,34</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>-3,35</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>-4,29</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>-2,37</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>-6,32</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-4,58</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-3,34</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-3,35</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-4,3</t>
+          <t>-4,71</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-4,46</t>
+          <t>-4,54</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,97; 1,4</t>
+          <t>-7,67; 1,07</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,01; -2,67</t>
+          <t>-7,49; 0,66</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,57; -0,86</t>
+          <t>-8,04; 0,52</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,95; 0,85</t>
+          <t>-6,59; 2,04</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-7,8; 0,85</t>
+          <t>-10,41; -2,86</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-8,6; -0,2</t>
+          <t>-8,79; -1,07</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-5,64; 0,22</t>
+          <t>-5,86; 0,23</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-7,41; -1,67</t>
+          <t>-7,65; -1,91</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-7,12; -1,5</t>
+          <t>-7,46; -1,8</t>
         </is>
       </c>
     </row>
@@ -954,32 +954,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>-31,25%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>-31,35%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>-40,16%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>-23,25%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>-61,94%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-44,91%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-31,25%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-31,35%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-40,21%</t>
+          <t>-46,16%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-42,73%</t>
+          <t>-43,5%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-55,66; 21,18</t>
+          <t>-59,03; 18,42</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-81,14; -31,66</t>
+          <t>-57,33; 11,71</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-69,32; -5,82</t>
+          <t>-63,2; 10,58</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-62,03; 10,39</t>
+          <t>-53,59; 26,11</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-59,39; 12,29</t>
+          <t>-81,18; -32,68</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-66,55; 0,23</t>
+          <t>-69,48; -11,15</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-47,48; 2,92</t>
+          <t>-49,31; 2,25</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-62,72; -18,91</t>
+          <t>-63,59; -20,06</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-60,59; -16,56</t>
+          <t>-61,3; -18,52</t>
         </is>
       </c>
     </row>
@@ -1064,32 +1064,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>0,04</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-4,74</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-4,1</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>4,69</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>-1,95</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-4,81</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,04</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-4,74</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-3,98</t>
+          <t>-5,13</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-4,7</t>
+          <t>-5,01</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,49; 13,68</t>
+          <t>-9,23; 9,83</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,91; 5,89</t>
+          <t>-13,76; 4,75</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-13,18; 2,16</t>
+          <t>-13,2; 5,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-9,12; 10,84</t>
+          <t>-5,16; 12,74</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-13,73; 4,09</t>
+          <t>-11,15; 5,81</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-13,33; 4,01</t>
+          <t>-13,45; 1,87</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-4,33; 8,6</t>
+          <t>-4,48; 9,06</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-10,31; 2,42</t>
+          <t>-9,65; 2,8</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-10,52; 0,95</t>
+          <t>-11,75; 0,75</t>
         </is>
       </c>
     </row>
@@ -1170,32 +1170,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>0,25%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>-28,91%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>-24,99%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>37,26%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="G14" s="2" t="inlineStr">
         <is>
           <t>-15,47%</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-38,25%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>0,25%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-28,91%</t>
-        </is>
-      </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-24,24%</t>
+          <t>-40,72%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-32,36%</t>
+          <t>-34,51%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-34,08; 164,55</t>
+          <t>-45,57; 85,63</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-58,45; 74,51</t>
+          <t>-65,2; 48,45</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-72,86; 32,07</t>
+          <t>-61,2; 46,21</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-43,14; 105,5</t>
+          <t>-31,77; 154,68</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-63,59; 37,34</t>
+          <t>-63,71; 72,94</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-61,12; 39,78</t>
+          <t>-73,29; 33,18</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-25,63; 75,48</t>
+          <t>-26,44; 83,78</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-58,15; 21,0</t>
+          <t>-53,04; 25,07</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-57,76; 11,05</t>
+          <t>-61,97; 9,07</t>
         </is>
       </c>
     </row>
@@ -1280,32 +1280,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>-2,54</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>-4,05</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>-4,47</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>-0,14</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="G16" s="2" t="inlineStr">
         <is>
           <t>-4,34</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-4,09</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>-2,54</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>-4,05</t>
-        </is>
-      </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-4,44</t>
+          <t>-4,26</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-4,32</t>
+          <t>-4,46</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,11; 3,31</t>
+          <t>-6,7; 1,16</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-7,84; -0,99</t>
+          <t>-7,99; -0,41</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-7,66; -1,1</t>
+          <t>-8,38; -0,72</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,31; 1,63</t>
+          <t>-3,88; 3,41</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-8,06; -0,47</t>
+          <t>-7,89; -1,37</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-8,3; -0,62</t>
+          <t>-7,92; -1,11</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,91; 1,42</t>
+          <t>-3,82; 1,39</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-6,57; -1,63</t>
+          <t>-6,61; -1,63</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-6,6; -1,96</t>
+          <t>-7,05; -2,2</t>
         </is>
       </c>
     </row>
@@ -1386,32 +1386,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>-20,81%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>-33,16%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>-36,59%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
           <t>-1,37%</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="G18" s="2" t="inlineStr">
         <is>
           <t>-43,3%</t>
         </is>
       </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>-40,85%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>-20,81%</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>-33,16%</t>
-        </is>
-      </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-36,35%</t>
+          <t>-42,53%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-38,91%</t>
+          <t>-40,13%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-33,36; 40,59</t>
+          <t>-46,71; 11,65</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-64,87; -10,43</t>
+          <t>-56,74; -4,1</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-62,55; -10,55</t>
+          <t>-57,5; -5,63</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-42,78; 18,48</t>
+          <t>-32,19; 41,55</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-56,08; -0,76</t>
+          <t>-64,08; -14,62</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-57,53; -5,18</t>
+          <t>-62,67; -12,31</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-31,62; 14,38</t>
+          <t>-30,64; 13,27</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-52,65; -17,2</t>
+          <t>-52,34; -16,19</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-53,96; -20,01</t>
+          <t>-56,43; -22,85</t>
         </is>
       </c>
     </row>
